--- a/7_eval_compareFastResponse/output/conversation_17487_processed.xlsx
+++ b/7_eval_compareFastResponse/output/conversation_17487_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,70 +453,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "[NEXT]"}]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "[NEXT]"}]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. "}]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cậu nói lại cùng tớ nha.</t>
+          <t>Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng.</t>
         </is>
       </c>
     </row>
